--- a/pred_ohlcv/54_21/2019-10-20 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 DVP ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>129178.5095117647</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1171380.253911765</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1236280.397211765</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1236280.397211765</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1516506.476611765</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>918768.8057117648</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>472751.4074117648</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>497749.7449117649</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>577021.4598117649</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>445068.5747117649</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>445068.5747117649</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>198856.7436117649</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>198866.7436117649</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>51776.4277117649</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>52171.2771117649</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>52577.1636117649</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>411918.6650117649</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-36109.14438823517</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-36089.14438823517</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-12143.34008823517</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-12143.34008823517</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-12123.34008823517</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-151027.6500882352</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-147944.7922882352</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-147944.7922882352</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-149863.4021882352</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-149873.4021882352</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-149873.4021882352</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-171885.7754882352</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-171875.7754882352</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-171875.7754882352</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-175072.7064882352</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-175062.7064882352</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-175062.7064882352</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-163085.2425882352</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>156266.8032117648</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>407404.3593117649</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>407404.3593117649</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>432821.4921788978</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>432781.5421788978</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>684036.0289788977</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>684036.0289788977</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>683996.0789788978</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1027432.724778898</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>757192.4544788979</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>757354.6222788979</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>602495.1856788979</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>210694.3250788979</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1431752.966305658</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1429844.939605658</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1510327.473805658</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1510327.473805658</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1060317.473805658</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1038141.931605658</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1038141.931605658</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1048582.362905658</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1010401.489805658</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1010527.791105658</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>993088.9799056582</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>932979.7304056583</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>776564.6390056582</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>732780.9778056582</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>733242.6329056582</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>733242.6329056582</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>733232.6329056582</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>821486.6971056582</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>797536.7897056582</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>797536.7897056582</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>963622.2106056582</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>950153.4799056583</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>954152.2308056583</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1670233.761305658</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1620213.761305658</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1622945.346305658</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1622945.346305658</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>6925385.997242335</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>6920746.171042335</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>6906241.498142336</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>7070577.413642336</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>6386051.609642336</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>6101728.019042335</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>6081012.123742335</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>6081012.123742335</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>6056698.983042335</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>6056698.983042335</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>6147607.129116019</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>6144884.537616019</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>6125409.132016019</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>6084077.043216019</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>6221032.187816019</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>6221032.187816019</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>6514037.419561715</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>6454555.751461715</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>6348914.900592635</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>6348914.900592635</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>6347948.788992635</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>6342796.230092635</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>6384873.193392635</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>6383946.616292635</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>6383946.616292635</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>5265914.794881896</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>5250521.765681896</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-20 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 DVP ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>129178.5095117647</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1171380.253911765</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1236280.397211765</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1236280.397211765</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1516506.476611765</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>918768.8057117648</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>472751.4074117648</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>497749.7449117649</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>577021.4598117649</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>445068.5747117649</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>445068.5747117649</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>198856.7436117649</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>198866.7436117649</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>51776.4277117649</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>52171.2771117649</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>52577.1636117649</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>52567.1636117649</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>52577.4314117649</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>52577.4314117649</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>52567.4314117649</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>52567.4314117649</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>55396.6244117649</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>411918.6650117649</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-36109.14438823517</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-36089.14438823517</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-12143.34008823517</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-12143.34008823517</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-12123.34008823517</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>391684.2131117649</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>372086.6939117649</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>424431.4926117649</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>424431.4926117649</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-147944.7922882352</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-147944.7922882352</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-149863.4021882352</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-149873.4021882352</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-149873.4021882352</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-171885.7754882352</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-171875.7754882352</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-171875.7754882352</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-175072.7064882352</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-175062.7064882352</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-175062.7064882352</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-163085.2425882352</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-163085.2425882352</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>156266.8032117648</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>407404.3593117649</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>407404.3593117649</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>432821.4921788978</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>432781.5421788978</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>684036.0289788977</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>684036.0289788977</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>683996.0789788978</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1027432.724778898</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>757192.4544788979</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>757354.6222788979</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>602495.1856788979</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>210694.3250788979</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1431752.966305658</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1429844.939605658</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1510327.473805658</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1510327.473805658</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1060317.473805658</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1038141.931605658</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1038141.931605658</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1048582.362905658</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1010401.489805658</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1010527.791105658</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>993088.9799056582</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>932979.7304056583</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>776564.6390056582</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>732780.9778056582</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>733242.6329056582</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>733242.6329056582</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>733232.6329056582</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>821486.6971056582</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>797536.7897056582</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>797536.7897056582</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>963622.2106056582</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>950153.4799056583</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>954152.2308056583</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1670233.761305658</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1620213.761305658</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1622945.346305658</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1622945.346305658</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>5974563.655231809</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>6621279.888642335</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>6925385.997242335</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>6920746.171042335</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>6906241.498142336</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>7070577.413642336</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>6386051.609642336</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>6101728.019042335</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>6081012.123742335</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>6081012.123742335</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>6056698.983042335</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>5265914.794881896</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>5250521.765681896</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
